--- a/lab_7/compare.xlsx
+++ b/lab_7/compare.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\GitHub\Multimedia_processing\LR7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4253C8-5534-47A0-A2F4-3E77D452F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4296" yWindow="1584" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4296" yWindow="1584" windowWidth="23040" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,19 +64,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,15 +103,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -166,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -201,7 +211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -378,119 +388,140 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>198</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>183</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="3">
         <v>193</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>